--- a/examples/global-var/全局变量表.xlsx
+++ b/examples/global-var/全局变量表.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="meta" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>变量名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,14 +204,46 @@
   </si>
   <si>
     <t>1,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpawnLevelLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大刷新个数显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array&lt;int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2|3|4|5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstRechargeReward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首充奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map&lt;string,int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Food=100|Power=200|Diamond=10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,29 +570,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -574,7 +606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -588,7 +620,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -602,7 +634,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -616,7 +648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -630,7 +662,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -644,7 +676,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -658,7 +690,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -672,7 +704,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -686,7 +718,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -700,7 +732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -714,7 +746,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -728,7 +760,34 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
@@ -740,26 +799,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -770,7 +829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -778,7 +837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -789,7 +848,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -800,7 +859,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
